--- a/산출물/테이블 정의서.xlsx
+++ b/산출물/테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Desktop\실제산출물\산출물양식\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Desktop\실제산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A5A607-32CD-411B-959F-B4270836392C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24157D3-0616-4134-A8EF-BE8766FFE1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="2955" windowWidth="27330" windowHeight="14340" xr2:uid="{D9F62C32-46A8-442B-90C9-7C843E95508C}"/>
+    <workbookView xWindow="1620" yWindow="4530" windowWidth="27375" windowHeight="14340" xr2:uid="{D9F62C32-46A8-442B-90C9-7C843E95508C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="151">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -452,10 +452,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>관리자가 보낸 알림 기록테이블</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>notification_id</t>
   </si>
   <si>
@@ -504,6 +500,42 @@
   </si>
   <si>
     <t>발생 시각</t>
+  </si>
+  <si>
+    <t>ResponseGuide</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험종류에 따른 대처법을 저장하는 테이블</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험종류ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseGuideID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseGuideDetails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대응방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 본문글 테이블</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자나 위험경고를 보낸 알림 기록테이블</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,107 +865,26 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="4" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="12" xfId="6" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -948,24 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -993,8 +926,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="7" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="8" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1004,6 +958,93 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="9" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1068,10 +1109,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1394,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E011BD38-6D1C-4CD1-9738-57D490719839}">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1411,321 +1452,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="47" t="str">
         <f>문서명</f>
         <v>테이블정의서</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="44"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="4">
         <v>45755</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="20" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="49" t="s">
+      <c r="E11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
+      <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="37" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+      <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="37" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="37" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+      <c r="A16" s="9">
         <v>5</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="37" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+      <c r="A17" s="9">
         <v>6</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="38" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36">
+      <c r="A18" s="9">
         <v>7</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="38" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="A19" s="9">
         <v>8</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="38" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
+      <c r="A20" s="9">
         <v>9</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="38" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1734,233 +1775,233 @@
       <c r="E21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="44"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="4">
         <v>45755</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="20" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="49" t="s">
+      <c r="E28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
+      <c r="A29" s="9">
         <v>1</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="38" t="s">
+      <c r="E29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="36">
+      <c r="A30" s="9">
         <v>2</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="37" t="s">
+      <c r="E30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="36">
+      <c r="A31" s="9">
         <v>3</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="38" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="36">
+      <c r="A32" s="9">
         <v>4</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="37" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="36">
+      <c r="A33" s="9">
         <v>5</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36">
+      <c r="A34" s="9">
         <v>6</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="38" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="36">
+      <c r="A35" s="9">
         <v>7</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="37" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1969,132 +2010,132 @@
       <c r="E36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="44"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="41"/>
+      <c r="F38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="4">
         <v>45755</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="20" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="23"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="56" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="49" t="s">
+      <c r="E43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="36">
+      <c r="A44" s="9">
         <v>1</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="37" t="s">
+      <c r="E44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="36">
+      <c r="A45" s="9">
         <v>2</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="37" t="s">
+      <c r="D45" s="12"/>
+      <c r="E45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2103,440 +2144,440 @@
       <c r="E46"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="44"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="14" t="s">
+      <c r="E48" s="41"/>
+      <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="4">
         <v>45755</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="20" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="23"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="56" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="58"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="49" t="s">
+      <c r="E53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="G53" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="52" t="s">
+      <c r="E54" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="52" t="s">
+      <c r="G54" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="52" t="s">
+      <c r="C55" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52" t="s">
+      <c r="E55" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52" t="s">
+      <c r="E56" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D57" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="53"/>
-      <c r="F57" s="52" t="s">
+      <c r="E57" s="20"/>
+      <c r="F57" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="52" t="s">
+      <c r="G57" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="52" t="s">
+      <c r="C58" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="52" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="52" t="s">
+      <c r="G59" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D60"/>
       <c r="E60"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="44"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="35"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14" t="s">
+      <c r="B62" s="37"/>
+      <c r="C62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="14" t="s">
+      <c r="E62" s="41"/>
+      <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="4">
         <v>45755</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="20" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="23"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="27"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="56" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="58"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="49" t="s">
+      <c r="E67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="G67" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="54" t="s">
+      <c r="D68" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="55" t="s">
+      <c r="E68" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="55" t="s">
+      <c r="G68" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55" t="s">
+      <c r="E69" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="55" t="s">
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G70" s="55" t="s">
+      <c r="G70" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="55" t="s">
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G71" s="55" t="s">
+      <c r="G71" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="55" t="s">
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="G72" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55" t="s">
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2545,409 +2586,409 @@
       <c r="E74"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="44"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="35"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14" t="s">
+      <c r="B76" s="37"/>
+      <c r="C76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="14" t="s">
+      <c r="E76" s="41"/>
+      <c r="F76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G76" s="4">
         <v>45755</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="20" t="s">
+      <c r="A77" s="38"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="23"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="28"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="56" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="58"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="32"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="49" t="s">
+      <c r="B81" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="49" t="s">
+      <c r="E81" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G81" s="35" t="s">
+      <c r="G81" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C82" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="54" t="s">
+      <c r="D82" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="55" t="s">
+      <c r="E82" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G82" s="55" t="s">
+      <c r="G82" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="54" t="s">
+      <c r="D83" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55" t="s">
+      <c r="E83" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="54" t="s">
+      <c r="D84" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E84" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55" t="s">
+      <c r="E84" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="54" t="s">
+      <c r="D85" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55" t="s">
+      <c r="E85" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="54" t="s">
+      <c r="A86" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55" t="s">
+      <c r="D86" s="21"/>
+      <c r="E86" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="55" t="s">
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G87" s="55" t="s">
+      <c r="G87" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="44"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="35"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="14" t="s">
+      <c r="B90" s="37"/>
+      <c r="C90" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="14" t="s">
+      <c r="E90" s="41"/>
+      <c r="F90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G90" s="4">
         <v>45755</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="20" t="s">
+      <c r="A91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="23"/>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="26" t="s">
+      <c r="B92" s="24"/>
+      <c r="C92" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="28"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="27"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="56" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="58"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="32"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="49" t="s">
+      <c r="A95" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="49" t="s">
+      <c r="E95" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G95" s="35" t="s">
+      <c r="G95" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B96" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C96" s="55" t="s">
+      <c r="C96" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E96" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="55" t="s">
+      <c r="E96" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G96" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="54" t="s">
+      <c r="A97" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E97" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55" t="s">
+      <c r="E97" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="55" t="s">
+      <c r="C98" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="54" t="s">
+      <c r="D98" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55" t="s">
+      <c r="E98" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="55" t="s">
+      <c r="C99" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55" t="s">
+      <c r="D99" s="21"/>
+      <c r="E99" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C100" s="55" t="s">
+      <c r="C100" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="55" t="s">
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="22" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2956,406 +2997,571 @@
       <c r="E101"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="44"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="35"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="14" t="s">
+      <c r="B103" s="37"/>
+      <c r="C103" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="14" t="s">
+      <c r="E103" s="41"/>
+      <c r="F103" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G103" s="17">
+      <c r="G103" s="4">
         <v>45755</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="20" t="s">
+      <c r="A104" s="38"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="23"/>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
+      <c r="A105" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="26" t="s">
+      <c r="B105" s="24"/>
+      <c r="C105" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="28"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="27"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="29" t="s">
+      <c r="A106" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="56" t="s">
+      <c r="B106" s="29"/>
+      <c r="C106" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="32"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="58"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="49" t="s">
+      <c r="C109" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="59"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="35"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="37"/>
+      <c r="C117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117" s="41"/>
+      <c r="F117" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" s="4">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="38"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="27"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="29"/>
+      <c r="C120" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="32"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="49" t="s">
+      <c r="B122" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C122" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="49" t="s">
+      <c r="D122" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="49" t="s">
+      <c r="E122" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G108" s="35" t="s">
+      <c r="G122" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="54" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B109" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C109" s="55" t="s">
+      <c r="B123" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D109" s="54" t="s">
+      <c r="D123" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E109" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="55" t="s">
+      <c r="E123" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G109" s="55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="54" t="s">
+      <c r="G123" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" s="55" t="s">
+      <c r="B124" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D127"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="35"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="37"/>
+      <c r="C129" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" s="41"/>
+      <c r="F129" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129" s="4">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="38"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="27"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="29"/>
+      <c r="C132" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="32"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="55"/>
-      <c r="G110" s="55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D111" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="55"/>
-      <c r="G111" s="55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D112" s="54"/>
-      <c r="E112" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="55"/>
-      <c r="G112" s="55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C113" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="G113" s="55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="44"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E116" s="16"/>
-      <c r="F116" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G116" s="17">
-        <v>45755</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="18"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="23"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="25"/>
-      <c r="C118" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="28"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="58"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D122" s="54" t="s">
+      <c r="D135" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E122" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="55" t="s">
+      <c r="E135" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G122" s="55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="54" t="s">
+      <c r="G135" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="C123" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B124" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C124" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
-      <c r="F124" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G124" s="55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B125" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C125" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="G125" s="55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D126"/>
-      <c r="E126"/>
+      <c r="B136" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="59"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="59"/>
+      <c r="F137" s="60"/>
+      <c r="G137" s="60"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="59"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="60"/>
+      <c r="G138" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:B104"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A90:B91"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
+  <mergeCells count="82">
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A129:B130"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A47:G47"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C64:G64"/>
     <mergeCell ref="A65:B65"/>
@@ -3368,36 +3574,38 @@
     <mergeCell ref="A62:B63"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A103:B104"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A90:B91"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="A117:B118"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
